--- a/Keyword Extraction/Results_Detailed Accuracy/detailedAccuracy_Video_4_MadFit.txt.xlsx
+++ b/Keyword Extraction/Results_Detailed Accuracy/detailedAccuracy_Video_4_MadFit.txt.xlsx
@@ -582,7 +582,7 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>99.99997615814209</v>
+        <v>99.99985694885254</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -590,10 +590,10 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>100</v>
+        <v>99.99984502792358</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -604,7 +604,7 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>99.99998807907104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -612,10 +612,10 @@
         <v>7</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>99.99997615814209</v>
+        <v>98.8919198513031</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -626,7 +626,7 @@
         <v>2</v>
       </c>
       <c r="D7">
-        <v>99.99998807907104</v>
+        <v>99.99996423721313</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -637,7 +637,7 @@
         <v>2</v>
       </c>
       <c r="D8">
-        <v>99.85547661781311</v>
+        <v>99.99983310699463</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -648,7 +648,7 @@
         <v>2</v>
       </c>
       <c r="D9">
-        <v>77.71056294441223</v>
+        <v>99.42722320556641</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -659,7 +659,7 @@
         <v>2</v>
       </c>
       <c r="D10">
-        <v>99.99871253967285</v>
+        <v>99.99996423721313</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -725,7 +725,7 @@
         <v>2</v>
       </c>
       <c r="D16">
-        <v>99.99994039535522</v>
+        <v>99.99986886978149</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -736,7 +736,7 @@
         <v>2</v>
       </c>
       <c r="D17">
-        <v>99.99998807907104</v>
+        <v>99.99974966049194</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -747,7 +747,7 @@
         <v>2</v>
       </c>
       <c r="D18">
-        <v>99.99988079071045</v>
+        <v>99.99995231628418</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -758,7 +758,7 @@
         <v>2</v>
       </c>
       <c r="D19">
-        <v>99.99995231628418</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -769,7 +769,7 @@
         <v>2</v>
       </c>
       <c r="D20">
-        <v>99.99855756759644</v>
+        <v>97.98550009727478</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -791,7 +791,7 @@
         <v>2</v>
       </c>
       <c r="D22">
-        <v>100</v>
+        <v>99.99998807907104</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -802,7 +802,7 @@
         <v>2</v>
       </c>
       <c r="D23">
-        <v>99.99996423721313</v>
+        <v>99.89905953407288</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -835,7 +835,7 @@
         <v>2</v>
       </c>
       <c r="D26">
-        <v>99.9996542930603</v>
+        <v>99.99731779098511</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -846,7 +846,7 @@
         <v>2</v>
       </c>
       <c r="D27">
-        <v>99.65226650238037</v>
+        <v>99.99998807907104</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -868,7 +868,7 @@
         <v>2</v>
       </c>
       <c r="D29">
-        <v>100</v>
+        <v>99.99998807907104</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -901,7 +901,7 @@
         <v>2</v>
       </c>
       <c r="D32">
-        <v>99.99998807907104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -912,7 +912,7 @@
         <v>2</v>
       </c>
       <c r="D33">
-        <v>100</v>
+        <v>99.99998807907104</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -923,7 +923,7 @@
         <v>2</v>
       </c>
       <c r="D34">
-        <v>100</v>
+        <v>99.99990463256836</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -934,7 +934,7 @@
         <v>2</v>
       </c>
       <c r="D35">
-        <v>99.99997615814209</v>
+        <v>99.99830722808838</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -978,7 +978,7 @@
         <v>2</v>
       </c>
       <c r="D39">
-        <v>99.99998807907104</v>
+        <v>99.99927282333374</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -989,7 +989,7 @@
         <v>2</v>
       </c>
       <c r="D40">
-        <v>99.99992847442627</v>
+        <v>99.99998807907104</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1000,7 +1000,7 @@
         <v>2</v>
       </c>
       <c r="D41">
-        <v>100</v>
+        <v>99.99788999557495</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1022,7 +1022,7 @@
         <v>2</v>
       </c>
       <c r="D43">
-        <v>99.99997615814209</v>
+        <v>99.78626370429993</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1033,7 +1033,7 @@
         <v>2</v>
       </c>
       <c r="D44">
-        <v>99.99996423721313</v>
+        <v>91.97914004325867</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1044,7 +1044,7 @@
         <v>2</v>
       </c>
       <c r="D45">
-        <v>100</v>
+        <v>99.99995231628418</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1055,7 +1055,7 @@
         <v>2</v>
       </c>
       <c r="D46">
-        <v>95.78401446342468</v>
+        <v>99.99994039535522</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1074,10 +1074,10 @@
         <v>49</v>
       </c>
       <c r="C48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D48">
-        <v>85.41268706321716</v>
+        <v>91.61857962608337</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1099,7 +1099,7 @@
         <v>2</v>
       </c>
       <c r="D50">
-        <v>99.99790191650391</v>
+        <v>99.97105002403259</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1121,7 +1121,7 @@
         <v>2</v>
       </c>
       <c r="D52">
-        <v>100</v>
+        <v>99.99972581863403</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1132,7 +1132,7 @@
         <v>2</v>
       </c>
       <c r="D53">
-        <v>99.99978542327881</v>
+        <v>100</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1143,7 +1143,7 @@
         <v>2</v>
       </c>
       <c r="D54">
-        <v>99.99998807907104</v>
+        <v>99.99943971633911</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1154,7 +1154,7 @@
         <v>2</v>
       </c>
       <c r="D55">
-        <v>99.99997615814209</v>
+        <v>100</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1198,7 +1198,7 @@
         <v>2</v>
       </c>
       <c r="D59">
-        <v>100</v>
+        <v>99.988853931427</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1220,7 +1220,7 @@
         <v>1</v>
       </c>
       <c r="D61">
-        <v>100</v>
+        <v>99.96284246444702</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1239,10 +1239,10 @@
         <v>64</v>
       </c>
       <c r="C63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D63">
-        <v>99.99986886978149</v>
+        <v>99.99997615814209</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1253,7 +1253,7 @@
         <v>1</v>
       </c>
       <c r="D64">
-        <v>99.99998807907104</v>
+        <v>99.99961853027344</v>
       </c>
     </row>
     <row r="65" spans="1:4">
